--- a/tests/results/test-firegex.xlsx
+++ b/tests/results/test-firegex.xlsx
@@ -1,21 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domingo Dirutigliano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domysh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD237317-80E7-4EA0-826C-78DEFCA4DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56F8B96-EC1F-CA47-98C2-821B9CA59238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{6B447539-E07B-471B-97E3-CD9E013EDB91}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" xr2:uid="{06A715B8-6EAB-1F4E-A0F8-BDDBE17B8663}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Foglio1!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Foglio1!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Foglio1!$A$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Foglio1!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Foglio1!$A$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Foglio1!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Foglio1!$B$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Foglio1!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Foglio1!$C$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Foglio1!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Foglio1!$D$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$A$2:$A$52</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +86,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,24 +94,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>N. of regex</t>
+    <t>2.3.3 (1 Thr)</t>
   </si>
   <si>
-    <t>proxy-single</t>
+    <t>2.3.3(8 Thr)</t>
   </si>
   <si>
-    <t>netfilter-4threads</t>
+    <t>2.4.0 (8 Thr)</t>
   </si>
   <si>
-    <t>proxy-4threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netfilter-single </t>
-  </si>
-  <si>
-    <t>All in MB/s</t>
+    <t>2.4.0 (1 Thr)</t>
   </si>
 </sst>
 </file>
@@ -61,9 +114,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,19 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -139,33 +181,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="2400" b="1"/>
-              <a:t>Firegex Benchmark</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>Firegex benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3067678284272014E-2"/>
-          <c:y val="2.1316145514671744E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -179,16 +213,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -202,26 +236,23 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$1</c:f>
+              <c:f>Foglio1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>proxy-single</c:v>
+                  <c:v>2.4.0 (8 Thr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -232,17 +263,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$A$2:$A$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$A$2:$A$17</c:f>
+              <c:f>Foglio1!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -290,73 +314,273 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$C$2:$C$52</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Foglio1!$C$2:$C$17,Foglio1!$C$52)</c:f>
+              <c:f>Foglio1!$B$2:$B$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>803.99</c:v>
+                  <c:v>4063.9920000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207.751</c:v>
+                  <c:v>4232.1419999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.739</c:v>
+                  <c:v>4244.1760000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.385999999999996</c:v>
+                  <c:v>2541.0479999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.129000000000005</c:v>
+                  <c:v>2337.413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.75</c:v>
+                  <c:v>1958.481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.604999999999997</c:v>
+                  <c:v>2024.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.744999999999997</c:v>
+                  <c:v>2095.0709999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.99</c:v>
+                  <c:v>1964.999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.051000000000002</c:v>
+                  <c:v>1991.579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.122999999999998</c:v>
+                  <c:v>2038.5429999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.457000000000001</c:v>
+                  <c:v>2049.2339999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.997</c:v>
+                  <c:v>2137.3609999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.202000000000002</c:v>
+                  <c:v>2142.23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.210999999999999</c:v>
+                  <c:v>2090.415</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.663</c:v>
+                  <c:v>2143.779</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.851000000000001</c:v>
+                  <c:v>2119.8270000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100.038</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2123.4760000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2092.9650000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2107.0309999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2106.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2071.136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2059.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1822.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1854.232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1849.173</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1659.809</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2069.962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1877.7239999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1721.2049999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1693.8209999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1884.114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1689.4290000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1639.712</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1662.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1654.556</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1858.1010000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1712.8710000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1874.748</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2008.76</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1716.222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1786.749</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1763.1279999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1792.43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1824.681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1599.617</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1685.6369999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1767.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1654.0609999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1516.288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +588,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0656-47FE-B423-BF49B5D982F3}"/>
+              <c16:uniqueId val="{00000000-089D-1A41-8BCB-3A4C702658CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -373,21 +597,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$1</c:f>
+              <c:f>Foglio1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>proxy-4threads</c:v>
+                  <c:v>2.4.0 (1 Thr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -398,17 +620,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$A$2:$A$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$A$2:$A$17</c:f>
+              <c:f>Foglio1!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -456,73 +671,273 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$2:$B$52</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Foglio1!$B$2:$B$17,Foglio1!$B$52)</c:f>
+              <c:f>Foglio1!$C$2:$C$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>769.61800000000005</c:v>
+                  <c:v>4192.6239999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.96799999999999</c:v>
+                  <c:v>4043.2820000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.65600000000001</c:v>
+                  <c:v>4116.4989999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.505</c:v>
+                  <c:v>2426.4070000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.084000000000003</c:v>
+                  <c:v>2185.0729999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.981999999999999</c:v>
+                  <c:v>2387.3530000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.531999999999996</c:v>
+                  <c:v>2301.924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.652999999999999</c:v>
+                  <c:v>2193.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.234999999999999</c:v>
+                  <c:v>2142.0320000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.828000000000003</c:v>
+                  <c:v>2149.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.603000000000002</c:v>
+                  <c:v>2143.8180000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.790999999999997</c:v>
+                  <c:v>1953.425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.231000000000002</c:v>
+                  <c:v>2154.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.07</c:v>
+                  <c:v>2097.5149999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.347000000000001</c:v>
+                  <c:v>1755.069</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.325000000000003</c:v>
+                  <c:v>2161.8119999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7569999999999997</c:v>
+                  <c:v>2138.8429999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2129.1610000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2120.547</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1782.443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2122.0990000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2125.7820000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760.6780000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2068.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2112.6640000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2173.5129999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2115.4250000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1761.827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2083.9140000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2117.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2108.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2131.982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1681.8889999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2035.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1594.1980000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1579.0250000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1865.96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1878.2180000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1979.6679999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000.133</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1725.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1726.2840000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1594.326</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1700.432</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1917.3109999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1937.117</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1720.7470000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1752.5550000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1866.7180000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1276.3889999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1333.5129999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,31 +945,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0656-47FE-B423-BF49B5D982F3}"/>
+              <c16:uniqueId val="{00000001-089D-1A41-8BCB-3A4C702658CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$1</c:f>
+              <c:f>Foglio1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>netfilter-single </c:v>
+                  <c:v>2.3.3 (1 Thr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -565,17 +977,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$A$2:$A$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$A$2:$A$17</c:f>
+              <c:f>Foglio1!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,73 +1028,273 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$E$2:$E$52</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Foglio1!$E$2:$E$17,Foglio1!$E$52)</c:f>
+              <c:f>Foglio1!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>684.57100000000003</c:v>
+                  <c:v>3752.683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437.24599999999998</c:v>
+                  <c:v>1943.4929999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304.30900000000003</c:v>
+                  <c:v>1394.1310000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.995</c:v>
+                  <c:v>902.20899999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119.45699999999999</c:v>
+                  <c:v>789.23299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.739</c:v>
+                  <c:v>830.38699999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.956000000000003</c:v>
+                  <c:v>608.51599999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.406999999999996</c:v>
+                  <c:v>527.70299999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.626999999999995</c:v>
+                  <c:v>455.39800000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.272000000000006</c:v>
+                  <c:v>454.31400000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.015000000000001</c:v>
+                  <c:v>470.70299999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.045999999999999</c:v>
+                  <c:v>362.09699999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.892000000000003</c:v>
+                  <c:v>378.161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.381</c:v>
+                  <c:v>243.91900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.975999999999999</c:v>
+                  <c:v>240.58199999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.527999999999999</c:v>
+                  <c:v>294.26299999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.727</c:v>
+                  <c:v>283.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>284.65699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>235.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>247.249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>232.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>237.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>173.09899999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>210.33799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201.46299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>197.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>189.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>179.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>183.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176.41200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>171.625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147.137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138.22300000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123.655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141.714</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146.69399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>133.41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>133.27600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100.872</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>128.797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>124.11499999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122.762</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>119.063</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115.438</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>111.923</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111.242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>111.76300000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105.908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +1302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0656-47FE-B423-BF49B5D982F3}"/>
+              <c16:uniqueId val="{00000002-089D-1A41-8BCB-3A4C702658CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -706,21 +1311,19 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$1</c:f>
+              <c:f>Foglio1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>netfilter-4threads</c:v>
+                  <c:v>2.3.3(8 Thr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -731,17 +1334,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$A$2:$A$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$A$2:$A$17</c:f>
+              <c:f>Foglio1!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -789,73 +1385,273 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$D$2:$D$52</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Foglio1!$D$2:$D$17,Foglio1!$D$52)</c:f>
+              <c:f>Foglio1!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>730.44899999999996</c:v>
+                  <c:v>4530.4340000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.35399999999998</c:v>
+                  <c:v>2679.9749999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307.16300000000001</c:v>
+                  <c:v>1610.029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178.303</c:v>
+                  <c:v>1230.0930000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.11099999999999</c:v>
+                  <c:v>997.82600000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.774</c:v>
+                  <c:v>597.36699999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.10599999999999</c:v>
+                  <c:v>621.04600000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.721999999999994</c:v>
+                  <c:v>649.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.082999999999998</c:v>
+                  <c:v>530.245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.474999999999994</c:v>
+                  <c:v>486.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.209000000000003</c:v>
+                  <c:v>325.10399999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.584000000000003</c:v>
+                  <c:v>404.964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.16</c:v>
+                  <c:v>361.69600000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.006999999999998</c:v>
+                  <c:v>366.88200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.597000000000001</c:v>
+                  <c:v>333.47899999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.326999999999998</c:v>
+                  <c:v>313.63600000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.954000000000001</c:v>
+                  <c:v>323.73200000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>263.36200000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245.09899999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>232.77099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219.273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>213.33199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>204.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>193.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188.083</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184.732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>183.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134.637</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>158.95599999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>157.708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146.387</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>123.226</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>138.761</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>129.67400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>125.328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125.274</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>123.899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.120999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>119.723</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116.062</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>114.77800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>112.566</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108.31</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +1659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0656-47FE-B423-BF49B5D982F3}"/>
+              <c16:uniqueId val="{00000003-089D-1A41-8BCB-3A4C702658CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -876,72 +1672,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="174115088"/>
-        <c:axId val="174118416"/>
+        <c:axId val="1450513120"/>
+        <c:axId val="1582165696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174115088"/>
+        <c:axId val="1450513120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Number of regexes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -955,6 +1696,81 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582165696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582165696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -978,42 +1794,50 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174118416"/>
+        <c:crossAx val="1450513120"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="174118416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="it-IT"/>
+                    <a:t>MB/s</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1025,76 +1849,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>MB/s</a:t>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="174115088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1105,7 +1864,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1137,13 +1896,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1220,7 +1972,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1231,7 +1983,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1254,14 +2006,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1277,7 +2029,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1297,22 +2049,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1321,12 +2068,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1336,12 +2083,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1353,13 +2100,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1368,36 +2115,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1419,15 +2159,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1442,15 +2180,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1461,17 +2199,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1480,14 +2218,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1499,21 +2237,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1532,7 +2264,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1551,17 +2283,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1570,17 +2302,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1601,7 +2332,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1609,7 +2340,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1622,6 +2353,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1629,10 +2371,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1647,13 +2389,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1662,14 +2404,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1699,8 +2441,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1723,14 +2465,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1739,23 +2475,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596153</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>74911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>563384</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895CE067-B008-3FA3-FA82-0327CF4CFDE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FF19AE-EB20-7048-B045-3EDEE6F2B858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,39 +2523,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1871,7 +2607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1982,13 +2718,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1997,6 +2726,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2061,928 +2797,978 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2EEAD8-D590-42C5-A8CC-A782069A8666}">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6121C1B-CDBB-4649-9DD2-9D2E4AE1EF2E}">
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4063.9920000000002</v>
+      </c>
+      <c r="C2">
+        <v>4192.6239999999998</v>
+      </c>
+      <c r="D2">
+        <v>3752.683</v>
+      </c>
+      <c r="E2">
+        <v>4530.4340000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4232.1419999999998</v>
+      </c>
+      <c r="C3">
+        <v>4043.2820000000002</v>
+      </c>
+      <c r="D3">
+        <v>1943.4929999999999</v>
+      </c>
+      <c r="E3">
+        <v>2679.9749999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4244.1760000000004</v>
+      </c>
+      <c r="C4">
+        <v>4116.4989999999998</v>
+      </c>
+      <c r="D4">
+        <v>1394.1310000000001</v>
+      </c>
+      <c r="E4">
+        <v>1610.029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A52" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5">
+        <v>2541.0479999999998</v>
+      </c>
+      <c r="C5">
+        <v>2426.4070000000002</v>
+      </c>
+      <c r="D5">
+        <v>902.20899999999995</v>
+      </c>
+      <c r="E5">
+        <v>1230.0930000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6">
+        <v>2337.413</v>
+      </c>
+      <c r="C6">
+        <v>2185.0729999999999</v>
+      </c>
+      <c r="D6">
+        <v>789.23299999999995</v>
+      </c>
+      <c r="E6">
+        <v>997.82600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>769.61800000000005</v>
-      </c>
-      <c r="C2" s="1">
-        <v>803.99</v>
-      </c>
-      <c r="D2">
-        <v>730.44899999999996</v>
-      </c>
-      <c r="E2">
-        <v>684.57100000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>232.96799999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>207.751</v>
-      </c>
-      <c r="D3">
-        <v>423.35399999999998</v>
-      </c>
-      <c r="E3">
-        <v>437.24599999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>154.65600000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>107.739</v>
-      </c>
-      <c r="D4">
-        <v>307.16300000000001</v>
-      </c>
-      <c r="E4">
-        <v>304.30900000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>118.505</v>
-      </c>
-      <c r="C5" s="1">
-        <v>86.385999999999996</v>
-      </c>
-      <c r="D5">
-        <v>178.303</v>
-      </c>
-      <c r="E5">
-        <v>165.995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>97.084000000000003</v>
-      </c>
-      <c r="C6" s="1">
-        <v>69.129000000000005</v>
-      </c>
-      <c r="D6">
-        <v>139.11099999999999</v>
-      </c>
-      <c r="E6">
-        <v>119.45699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>80.981999999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>57.75</v>
+      <c r="B7">
+        <v>1958.481</v>
+      </c>
+      <c r="C7">
+        <v>2387.3530000000001</v>
       </c>
       <c r="D7">
-        <v>102.774</v>
+        <v>830.38699999999994</v>
       </c>
       <c r="E7">
-        <v>119.739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>597.36699999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>69.531999999999996</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50.604999999999997</v>
+      <c r="B8">
+        <v>2024.21</v>
+      </c>
+      <c r="C8">
+        <v>2301.924</v>
       </c>
       <c r="D8">
-        <v>100.10599999999999</v>
+        <v>608.51599999999996</v>
       </c>
       <c r="E8">
-        <v>86.956000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+        <v>621.04600000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>59.652999999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44.744999999999997</v>
+      <c r="B9">
+        <v>2095.0709999999999</v>
+      </c>
+      <c r="C9">
+        <v>2193.34</v>
       </c>
       <c r="D9">
-        <v>90.721999999999994</v>
+        <v>527.70299999999997</v>
       </c>
       <c r="E9">
-        <v>75.406999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+        <v>649.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>56.234999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39.99</v>
+      <c r="B10">
+        <v>1964.999</v>
+      </c>
+      <c r="C10">
+        <v>2142.0320000000002</v>
       </c>
       <c r="D10">
-        <v>67.082999999999998</v>
+        <v>455.39800000000002</v>
       </c>
       <c r="E10">
-        <v>67.626999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+        <v>530.245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>49.828000000000003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>36.051000000000002</v>
+      <c r="B11">
+        <v>1991.579</v>
+      </c>
+      <c r="C11">
+        <v>2149.89</v>
       </c>
       <c r="D11">
-        <v>74.474999999999994</v>
+        <v>454.31400000000002</v>
       </c>
       <c r="E11">
-        <v>74.272000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+        <v>486.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>45.603000000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>33.122999999999998</v>
+      <c r="B12">
+        <v>2038.5429999999999</v>
+      </c>
+      <c r="C12">
+        <v>2143.8180000000002</v>
       </c>
       <c r="D12">
-        <v>56.209000000000003</v>
+        <v>470.70299999999997</v>
       </c>
       <c r="E12">
-        <v>56.015000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+        <v>325.10399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>42.790999999999997</v>
-      </c>
-      <c r="C13" s="1">
-        <v>30.457000000000001</v>
+      <c r="B13">
+        <v>2049.2339999999999</v>
+      </c>
+      <c r="C13">
+        <v>1953.425</v>
       </c>
       <c r="D13">
-        <v>52.584000000000003</v>
+        <v>362.09699999999998</v>
       </c>
       <c r="E13">
-        <v>52.045999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+        <v>404.964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>39.231000000000002</v>
-      </c>
-      <c r="C14" s="1">
-        <v>27.997</v>
+      <c r="B14">
+        <v>2137.3609999999999</v>
+      </c>
+      <c r="C14">
+        <v>2154.15</v>
       </c>
       <c r="D14">
-        <v>43.16</v>
+        <v>378.161</v>
       </c>
       <c r="E14">
-        <v>57.892000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+        <v>361.69600000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>37.07</v>
-      </c>
-      <c r="C15" s="1">
-        <v>26.202000000000002</v>
+      <c r="B15">
+        <v>2142.23</v>
+      </c>
+      <c r="C15">
+        <v>2097.5149999999999</v>
       </c>
       <c r="D15">
-        <v>44.006999999999998</v>
+        <v>243.91900000000001</v>
       </c>
       <c r="E15">
-        <v>44.381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+        <v>366.88200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>34.347000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>24.210999999999999</v>
+      <c r="B16">
+        <v>2090.415</v>
+      </c>
+      <c r="C16">
+        <v>1755.069</v>
       </c>
       <c r="D16">
-        <v>41.597000000000001</v>
+        <v>240.58199999999999</v>
       </c>
       <c r="E16">
-        <v>48.975999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+        <v>333.47899999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>32.325000000000003</v>
-      </c>
-      <c r="C17" s="1">
-        <v>22.663</v>
+      <c r="B17">
+        <v>2143.779</v>
+      </c>
+      <c r="C17">
+        <v>2161.8119999999999</v>
       </c>
       <c r="D17">
-        <v>39.326999999999998</v>
+        <v>294.26299999999998</v>
       </c>
       <c r="E17">
-        <v>39.527999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+        <v>313.63600000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>33.11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>34.661999999999999</v>
+      <c r="B18">
+        <v>2119.8270000000002</v>
+      </c>
+      <c r="C18">
+        <v>2138.8429999999998</v>
       </c>
       <c r="D18">
-        <v>37.487000000000002</v>
+        <v>283.72699999999998</v>
       </c>
       <c r="E18">
-        <v>36.875999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+        <v>323.73200000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>28.527999999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>19.939</v>
+      <c r="B19">
+        <v>2100.038</v>
+      </c>
+      <c r="C19">
+        <v>2129.1610000000001</v>
       </c>
       <c r="D19">
-        <v>35.718000000000004</v>
+        <v>284.65699999999998</v>
       </c>
       <c r="E19">
-        <v>35.459000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+        <v>263.36200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>31.477</v>
-      </c>
-      <c r="C20" s="1">
-        <v>31.032</v>
+      <c r="B20">
+        <v>2123.4760000000001</v>
+      </c>
+      <c r="C20">
+        <v>2120.547</v>
       </c>
       <c r="D20">
-        <v>39.122999999999998</v>
+        <v>235.68899999999999</v>
       </c>
       <c r="E20">
-        <v>38.159999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+        <v>270.42500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>29.777999999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>29.071999999999999</v>
+      <c r="B21">
+        <v>2092.9650000000001</v>
+      </c>
+      <c r="C21">
+        <v>1782.443</v>
       </c>
       <c r="D21">
-        <v>38.704999999999998</v>
+        <v>247.249</v>
       </c>
       <c r="E21">
-        <v>39.090000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+        <v>255.68899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>27.93</v>
-      </c>
-      <c r="C22" s="1">
-        <v>28.32</v>
+      <c r="B22">
+        <v>2107.0309999999999</v>
+      </c>
+      <c r="C22">
+        <v>2122.0990000000002</v>
       </c>
       <c r="D22">
-        <v>36.027999999999999</v>
+        <v>232.99100000000001</v>
       </c>
       <c r="E22">
-        <v>36.558999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+        <v>245.09899999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>26.67</v>
-      </c>
-      <c r="C23" s="1">
-        <v>27.248000000000001</v>
+      <c r="B23">
+        <v>2106.4340000000002</v>
+      </c>
+      <c r="C23">
+        <v>2125.7820000000002</v>
       </c>
       <c r="D23">
-        <v>29.984999999999999</v>
+        <v>237.78299999999999</v>
       </c>
       <c r="E23">
-        <v>26.946999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+        <v>232.77099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>25.907</v>
-      </c>
-      <c r="C24" s="1">
-        <v>25.699000000000002</v>
+      <c r="B24">
+        <v>2071.136</v>
+      </c>
+      <c r="C24">
+        <v>1760.6780000000001</v>
       </c>
       <c r="D24">
-        <v>34.012999999999998</v>
+        <v>173.09899999999999</v>
       </c>
       <c r="E24">
-        <v>32.912999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+        <v>219.273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>24.965</v>
-      </c>
-      <c r="C25" s="1">
-        <v>24.452999999999999</v>
+      <c r="B25">
+        <v>2059.23</v>
+      </c>
+      <c r="C25">
+        <v>2068.81</v>
       </c>
       <c r="D25">
-        <v>27.12</v>
+        <v>210.33799999999999</v>
       </c>
       <c r="E25">
-        <v>27.321000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+        <v>213.33199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>20.498000000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>24.184000000000001</v>
+      <c r="B26">
+        <v>1822.1120000000001</v>
+      </c>
+      <c r="C26">
+        <v>2112.6640000000002</v>
       </c>
       <c r="D26">
-        <v>30.239000000000001</v>
+        <v>201.46299999999999</v>
       </c>
       <c r="E26">
-        <v>30.553000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+        <v>209.92099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>23.077999999999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>22.719000000000001</v>
+      <c r="B27">
+        <v>1854.232</v>
+      </c>
+      <c r="C27">
+        <v>2173.5129999999999</v>
       </c>
       <c r="D27">
-        <v>25.035</v>
+        <v>197.85599999999999</v>
       </c>
       <c r="E27">
-        <v>27.91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+        <v>204.36799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>22.077000000000002</v>
-      </c>
-      <c r="C28" s="1">
-        <v>22.097999999999999</v>
+      <c r="B28">
+        <v>1849.173</v>
+      </c>
+      <c r="C28">
+        <v>2115.4250000000002</v>
       </c>
       <c r="D28">
-        <v>28.456</v>
+        <v>189.31299999999999</v>
       </c>
       <c r="E28">
-        <v>28.058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+        <v>193.78800000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>21.446999999999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>21.045999999999999</v>
+      <c r="B29">
+        <v>1659.809</v>
+      </c>
+      <c r="C29">
+        <v>1761.827</v>
       </c>
       <c r="D29">
-        <v>22.972000000000001</v>
+        <v>179.92099999999999</v>
       </c>
       <c r="E29">
-        <v>21.006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+        <v>188.083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>20.666</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20.256</v>
+      <c r="B30">
+        <v>2069.962</v>
+      </c>
+      <c r="C30">
+        <v>2083.9140000000002</v>
       </c>
       <c r="D30">
-        <v>26.196000000000002</v>
+        <v>183.03100000000001</v>
       </c>
       <c r="E30">
-        <v>23.085999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+        <v>184.732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>20.265999999999998</v>
-      </c>
-      <c r="C31" s="1">
-        <v>19.72</v>
+      <c r="B31">
+        <v>1877.7239999999999</v>
+      </c>
+      <c r="C31">
+        <v>2117.56</v>
       </c>
       <c r="D31">
-        <v>21.872</v>
+        <v>176.41200000000001</v>
       </c>
       <c r="E31">
-        <v>18.765999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+        <v>183.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>19.219000000000001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>19.099</v>
+      <c r="B32">
+        <v>1721.2049999999999</v>
+      </c>
+      <c r="C32">
+        <v>2108.16</v>
       </c>
       <c r="D32">
-        <v>24.821000000000002</v>
+        <v>171.625</v>
       </c>
       <c r="E32">
-        <v>19.981999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+        <v>179.28800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>18.105</v>
-      </c>
-      <c r="C33" s="1">
-        <v>12.525</v>
+      <c r="B33">
+        <v>1693.8209999999999</v>
+      </c>
+      <c r="C33">
+        <v>2131.982</v>
       </c>
       <c r="D33">
-        <v>24.202000000000002</v>
+        <v>147.137</v>
       </c>
       <c r="E33">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+        <v>134.637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>14.124000000000001</v>
-      </c>
-      <c r="C34" s="1">
-        <v>18.613</v>
+      <c r="B34">
+        <v>1884.114</v>
+      </c>
+      <c r="C34">
+        <v>1681.8889999999999</v>
       </c>
       <c r="D34">
-        <v>20.027999999999999</v>
+        <v>152.48599999999999</v>
       </c>
       <c r="E34">
-        <v>20.093</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+        <v>164.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>12.744999999999999</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10.502000000000001</v>
+      <c r="B35">
+        <v>1689.4290000000001</v>
+      </c>
+      <c r="C35">
+        <v>2035.43</v>
       </c>
       <c r="D35">
-        <v>19.277000000000001</v>
+        <v>138.22300000000001</v>
       </c>
       <c r="E35">
-        <v>19.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+        <v>158.95599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>14.128</v>
-      </c>
-      <c r="C36" s="1">
-        <v>17.247</v>
+      <c r="B36">
+        <v>1639.712</v>
+      </c>
+      <c r="C36">
+        <v>1594.1980000000001</v>
       </c>
       <c r="D36">
-        <v>18.47</v>
+        <v>123.655</v>
       </c>
       <c r="E36">
-        <v>18.207000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+        <v>157.708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>13.951000000000001</v>
-      </c>
-      <c r="C37" s="1">
-        <v>16.858000000000001</v>
+      <c r="B37">
+        <v>1662.69</v>
+      </c>
+      <c r="C37">
+        <v>1579.0250000000001</v>
       </c>
       <c r="D37">
-        <v>18.062000000000001</v>
+        <v>141.714</v>
       </c>
       <c r="E37">
-        <v>20.907</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+        <v>153.40799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>13.488</v>
-      </c>
-      <c r="C38" s="1">
-        <v>16.478999999999999</v>
+      <c r="B38">
+        <v>1654.556</v>
+      </c>
+      <c r="C38">
+        <v>1865.96</v>
       </c>
       <c r="D38">
-        <v>17.524999999999999</v>
+        <v>146.69399999999999</v>
       </c>
       <c r="E38">
-        <v>17.077999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+        <v>146.387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>13.209</v>
-      </c>
-      <c r="C39" s="1">
-        <v>16.074999999999999</v>
+      <c r="B39">
+        <v>1858.1010000000001</v>
+      </c>
+      <c r="C39">
+        <v>1878.2180000000001</v>
       </c>
       <c r="D39">
-        <v>16.866</v>
+        <v>133.41</v>
       </c>
       <c r="E39">
-        <v>16.372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+        <v>123.226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>13.084</v>
-      </c>
-      <c r="C40" s="1">
-        <v>15.444000000000001</v>
+      <c r="B40">
+        <v>1712.8710000000001</v>
+      </c>
+      <c r="C40">
+        <v>1979.6679999999999</v>
       </c>
       <c r="D40">
-        <v>16.495999999999999</v>
+        <v>98.405000000000001</v>
       </c>
       <c r="E40">
-        <v>16.341999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+        <v>138.761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>12.429</v>
-      </c>
-      <c r="C41" s="1">
-        <v>15.381</v>
+      <c r="B41">
+        <v>1874.748</v>
+      </c>
+      <c r="C41">
+        <v>2000.133</v>
       </c>
       <c r="D41">
-        <v>15.975</v>
+        <v>133.27600000000001</v>
       </c>
       <c r="E41">
-        <v>15.942</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+        <v>136.02000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>12.044</v>
-      </c>
-      <c r="C42" s="1">
-        <v>14.867000000000001</v>
+      <c r="B42">
+        <v>2008.76</v>
+      </c>
+      <c r="C42">
+        <v>1725.9480000000001</v>
       </c>
       <c r="D42">
-        <v>15.702</v>
+        <v>93.152000000000001</v>
       </c>
       <c r="E42">
-        <v>15.874000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+        <v>129.67400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>11.906000000000001</v>
-      </c>
-      <c r="C43" s="1">
-        <v>14.378</v>
+      <c r="B43">
+        <v>1716.222</v>
+      </c>
+      <c r="C43">
+        <v>1726.2840000000001</v>
       </c>
       <c r="D43">
-        <v>16.452999999999999</v>
+        <v>100.872</v>
       </c>
       <c r="E43">
-        <v>16.940999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+        <v>125.328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>11.260999999999999</v>
-      </c>
-      <c r="C44" s="1">
-        <v>14.067</v>
+      <c r="B44">
+        <v>1786.749</v>
+      </c>
+      <c r="C44">
+        <v>1594.326</v>
       </c>
       <c r="D44">
-        <v>16.579999999999998</v>
+        <v>128.797</v>
       </c>
       <c r="E44">
-        <v>15.426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+        <v>125.274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>9.7460000000000004</v>
-      </c>
-      <c r="C45" s="1">
-        <v>13.679</v>
+      <c r="B45">
+        <v>1763.1279999999999</v>
+      </c>
+      <c r="C45">
+        <v>1700.432</v>
       </c>
       <c r="D45">
-        <v>14.644</v>
+        <v>124.11499999999999</v>
       </c>
       <c r="E45">
-        <v>15.551</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+        <v>123.899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>10.95</v>
-      </c>
-      <c r="C46" s="1">
-        <v>13.27</v>
+      <c r="B46">
+        <v>1792.43</v>
+      </c>
+      <c r="C46">
+        <v>1917.3109999999999</v>
       </c>
       <c r="D46">
-        <v>15.084</v>
+        <v>122.762</v>
       </c>
       <c r="E46">
-        <v>14.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+        <v>93.120999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>10.849</v>
-      </c>
-      <c r="C47" s="1">
-        <v>13.177</v>
+      <c r="B47">
+        <v>1824.681</v>
+      </c>
+      <c r="C47">
+        <v>1937.117</v>
       </c>
       <c r="D47">
-        <v>14.709</v>
+        <v>119.063</v>
       </c>
       <c r="E47">
-        <v>15.867000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+        <v>119.723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>10.202999999999999</v>
-      </c>
-      <c r="C48" s="1">
-        <v>12.926</v>
+      <c r="B48">
+        <v>1599.617</v>
+      </c>
+      <c r="C48">
+        <v>1720.7470000000001</v>
       </c>
       <c r="D48">
-        <v>14.754</v>
+        <v>115.438</v>
       </c>
       <c r="E48">
-        <v>14.913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+        <v>116.062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>10.004</v>
-      </c>
-      <c r="C49" s="1">
-        <v>12.72</v>
+      <c r="B49">
+        <v>1685.6369999999999</v>
+      </c>
+      <c r="C49">
+        <v>1752.5550000000001</v>
       </c>
       <c r="D49">
-        <v>13.849</v>
+        <v>111.923</v>
       </c>
       <c r="E49">
-        <v>14.164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+        <v>114.77800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>8.9580000000000002</v>
-      </c>
-      <c r="C50" s="1">
-        <v>12.585000000000001</v>
+      <c r="B50">
+        <v>1767.5050000000001</v>
+      </c>
+      <c r="C50">
+        <v>1866.7180000000001</v>
       </c>
       <c r="D50">
-        <v>14.305999999999999</v>
+        <v>111.242</v>
       </c>
       <c r="E50">
-        <v>14.058999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+        <v>112.566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>9.2639999999999993</v>
-      </c>
-      <c r="C51" s="1">
-        <v>12.301</v>
+      <c r="B51">
+        <v>1654.0609999999999</v>
+      </c>
+      <c r="C51">
+        <v>1276.3889999999999</v>
       </c>
       <c r="D51">
-        <v>13.651</v>
+        <v>111.76300000000001</v>
       </c>
       <c r="E51">
-        <v>13.457000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+        <v>108.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>9.7569999999999997</v>
-      </c>
-      <c r="C52" s="1">
-        <v>11.851000000000001</v>
+      <c r="B52">
+        <v>1516.288</v>
+      </c>
+      <c r="C52">
+        <v>1333.5129999999999</v>
       </c>
       <c r="D52">
-        <v>12.954000000000001</v>
+        <v>105.908</v>
       </c>
       <c r="E52">
-        <v>12.727</v>
+        <v>105.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/results/test-firegex.xlsx
+++ b/tests/results/test-firegex.xlsx
@@ -5,75 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domysh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domysh/repos/firegex/tests/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56F8B96-EC1F-CA47-98C2-821B9CA59238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311A56B-5BBB-D94C-9E9C-4E7B6EDAE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" xr2:uid="{06A715B8-6EAB-1F4E-A0F8-BDDBE17B8663}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Foglio1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Foglio1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Foglio1!$A$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Foglio1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Foglio1!$A$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Foglio1!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Foglio1!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Foglio1!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Foglio1!$C$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Foglio1!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Foglio1!$D$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$A$2:$A$52</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,21 +123,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Firegex benchmark</a:t>
+              <a:rPr lang="it-IT" sz="2400" b="1"/>
+              <a:t>Firegex</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400" b="1" baseline="0"/>
+              <a:t> Benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -213,16 +159,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -231,7 +177,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8213364612594209E-2"/>
+          <c:y val="0.14555624117369972"/>
+          <c:w val="0.880623749181775"/>
+          <c:h val="0.70387271434569942"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -250,7 +206,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -588,7 +544,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-089D-1A41-8BCB-3A4C702658CF}"/>
+              <c16:uniqueId val="{00000000-E86A-5A4D-B47C-CC660FC1E485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -607,7 +563,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -945,7 +901,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-089D-1A41-8BCB-3A4C702658CF}"/>
+              <c16:uniqueId val="{00000001-E86A-5A4D-B47C-CC660FC1E485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -964,7 +920,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1302,7 +1258,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-089D-1A41-8BCB-3A4C702658CF}"/>
+              <c16:uniqueId val="{00000002-E86A-5A4D-B47C-CC660FC1E485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,7 +1277,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1659,7 +1615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-089D-1A41-8BCB-3A4C702658CF}"/>
+              <c16:uniqueId val="{00000003-E86A-5A4D-B47C-CC660FC1E485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,17 +1628,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1450513120"/>
-        <c:axId val="1582165696"/>
+        <c:axId val="774619232"/>
+        <c:axId val="774620960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1450513120"/>
+        <c:axId val="774619232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1696,81 +1652,6 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1582165696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1582165696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1794,66 +1675,68 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450513120"/>
+        <c:crossAx val="774620960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="774620960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774619232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="it-IT"/>
-                    <a:t>MB/s</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1864,7 +1747,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,7 +1797,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" vert="horz"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1928,6 +1811,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1972,7 +1856,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1983,7 +1867,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2006,14 +1890,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2029,7 +1913,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2049,17 +1933,22 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2068,12 +1957,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2083,12 +1972,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2100,13 +1989,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="38100" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2115,29 +2004,36 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2159,13 +2055,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2180,15 +2078,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2199,17 +2097,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2218,14 +2116,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2237,15 +2135,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2264,7 +2168,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2283,17 +2187,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2302,16 +2206,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2332,7 +2237,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2340,7 +2245,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2353,17 +2258,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2371,10 +2265,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2389,13 +2283,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2404,14 +2298,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2441,8 +2335,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2465,8 +2359,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2476,22 +2376,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>74911</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123752</xdr:rowOff>
+      <xdr:colOff>383822</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>150989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>563384</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>200525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FF19AE-EB20-7048-B045-3EDEE6F2B858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C916C86-1056-B050-5EED-9FD1E4C3AFED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,6 +2410,136 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.62598</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06306</cdr:x>
+      <cdr:y>0.65551</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1454BD90-6308-7374-FC74-39D635C2BD71}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="2692399"/>
+          <a:ext cx="416278" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00641</cdr:x>
+      <cdr:y>0.42257</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03848</cdr:x>
+      <cdr:y>0.53412</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D13948-377D-F59F-BF39-BA464DDF6134}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-91720" y="1951565"/>
+          <a:ext cx="479778" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="900" kern="1200"/>
+            <a:t>MB/s</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46558</cdr:x>
+      <cdr:y>0.89501</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72745</cdr:x>
+      <cdr:y>0.95735</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87CEA94-FB21-E551-BB28-8C4EEB06EF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3073400" y="3849511"/>
+          <a:ext cx="1728611" cy="268112"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="800" kern="1200"/>
+            <a:t>N.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="800" kern="1200" baseline="0"/>
+            <a:t> of regexes</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="800" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2831,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6121C1B-CDBB-4649-9DD2-9D2E4AE1EF2E}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
